--- a/scrappingData_sethluimarketing_FULL.xlsx
+++ b/scrappingData_sethluimarketing_FULL.xlsx
@@ -31,7 +31,7 @@
 To view the full list of activities in the coming weeks, check this out in advance and get ready for some exciting cooking: https://bit.ly/34jMqQJ
 #visitsingapore #singaporefoodfestival #singaporefoodfestival2020 #SingapoRediscovers
 VisitSingapore is live now in Singapore Food Festival 2020.
-35 mins ·
+1 hr ·
 Of Durian and Blue Cheese: A Tasting Journey, by The Quarters and Durian Edition
 An exclusive masterclass on the King of Fruits—durians. Learn their characteristics and how to select the right durian!
 Presented by Deming Chung
